--- a/biology/Zoologie/Frisonne-sahiwal_australienne/Frisonne-sahiwal_australienne.xlsx
+++ b/biology/Zoologie/Frisonne-sahiwal_australienne/Frisonne-sahiwal_australienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La frisonne-sahiwal australienne est une race bovine australienne. Son nom anglais est australian fresian-sahiwal. (ou AFS)
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une race récente (années 1960) issue du croisement en ferme expérimentale dans le Queensland de la sahiwal, race zébuine laitière, avec la race frisonne-holstein australienne. Le but de cette expérimentation était de créer une race apte à la vie en climat tropical sec australien, avec une capacité de production laitière rentable. Elle n'est guère élevée qu'en Australie, mais de la semence mâle commence à être exportée.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe rouge sombre avec des muqueuses noires. Ses oreilles de grande taille trahissent l'origine Bos taurus indicus.
 </t>
@@ -574,7 +590,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est une race laitière qui donne environ 3 000 kg par lactation d'un lait riche: 3,4 % de protéines et 4 % de matière grasse.
 Elle conjugue les qualités des races génitrices :
